--- a/pred_ohlcv/54_21/2020-01-14 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-639978.5902703153</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-639839.5902703153</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-386344.3238703153</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-385744.3238703153</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-385880.7084703153</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-378580.7084703153</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-616515.3177703153</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-441034.9299703153</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-769649.4178703153</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-598382.2267703153</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-573279.1752703153</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-289964.2533703152</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-432756.1748703152</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-432485.9572703153</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-418556.7325703152</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-536075.2592703153</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-369287.0581703153</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-829430.9092703153</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-829730.9092703153</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-923816.2529703153</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1106559.723770315</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-926929.7137703153</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1189957.071970315</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1500476.098270315</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1362400.642870315</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1362400.642870315</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1319290.469970315</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1319290.469970315</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1920397.972870315</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1920397.972870315</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1086656.948970315</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1059096.442070315</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1326212.362870315</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1622441.251470315</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1795787.096370315</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-905252.6096703152</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1116108.385970315</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-946397.2014703152</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-946025.3974703152</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-809413.1501703153</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-808758.9706703153</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1116289.872270315</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1116224.872270315</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1336511.879570315</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1346432.833970315</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1408068.740270315</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1237064.358070315</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1244913.327370315</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-789675.0201703154</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-789383.2573703154</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-563143.2029703154</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-748806.1842703153</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-747329.0527703153</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-928179.1058703153</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1262344.517570315</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1262750.667370315</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-693724.3271439666</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-401744.9730439666</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-640629.5781439666</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-307581.0538439666</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-616601.3739439666</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-946087.2534439666</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1185765.063843967</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1023458.905143967</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1248366.066043967</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-953959.1663439667</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1212523.888443967</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1225514.213143967</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1054125.135343967</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-823321.1026439668</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1003180.349943967</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1051038.516743967</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-773394.0550439669</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1033224.403943967</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-711376.5881439669</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-413273.6749439669</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-74080.24614396691</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1117669.312456033</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1117669.312456033</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>937273.4884560332</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>769381.8903560331</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>893756.1494560331</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>660051.9763560331</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-805902.2518439669</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-601840.0604439669</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-930883.6389439669</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-720066.4503439669</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-869941.8459439669</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1001053.799143967</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1753838.755736799</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1494972.433736798</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1540342.998436798</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2599362.759436798</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2599362.759436798</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2836090.209936798</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2916686.444736798</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2916686.444736798</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3080504.215236798</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3399796.206736798</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3399796.206736798</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3607726.468736799</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3567492.517536798</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-3567492.517536798</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-20283814.4079606</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-19885323.3757606</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-19031223.8984606</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-19436818.8305606</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-19233403.2386606</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-18771441.42516061</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-15710148.40542066</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-15764289.12822066</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-15777687.87122066</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-16470640.75532066</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-15840086.77366622</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-16003709.24256622</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-15725115.61226622</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-16143233.15546622</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-15560978.03676622</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-15491544.05663121</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-15361228.42163121</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-15386903.14733121</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-15624460.99723121</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-15359084.97613121</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-14720672.38943121</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-14377236.12963121</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-15389899.36996646</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-15020743.73076646</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-14683122.13786646</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-14621824.37586646</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-14611457.55966646</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-14747460.03026646</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-14795912.70946646</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-14773977.43746645</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-14776598.43706645</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-15070300.16236645</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-15008028.22136645</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-14808396.33676645</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-14644286.28236645</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-14644248.11586645</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-14359464.23856645</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-14358093.23856645</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-14396893.52836645</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-11089248.85535085</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-11159891.44325085</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-10626061.67045085</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-12991114.33095085</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-12991045.33095085</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-13792374.54745084</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-13853688.69456566</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-13704038.49766566</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-13704295.37606566</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-14566932.49735998</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-14790273.31995998</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-15028283.61445998</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-15027981.56635998</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-15271069.56515998</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-15271000.56515998</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-15591404.60345998</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-15824480.22485998</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-15771775.56615998</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-15461811.46595998</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-15462063.74355998</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-15641309.94315998</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-15912443.80025998</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-15912373.80025998</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-16344585.27315998</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-17342761.00845998</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-18142761.00845998</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-18004004.23505998</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-18195660.43655998</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-17888244.87555998</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-17652926.79575998</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-17945207.98545998</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-17932405.03465998</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-18100309.60255998</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-18036332.07785998</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-17731568.67625998</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-17557746.85805998</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-17517993.48855998</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-17225560.17995998</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-17216326.17995998</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-17169165.44065998</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-17218827.51266645</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-16866525.11906645</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-16860525.11906645</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-17145375.87386645</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-17144141.87386645</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-17502446.85976645</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-17499946.85976645</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-17249156.82836645</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-17248045.82836645</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-17248146.58736645</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-17730503.93556645</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-17454377.71136645</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-16624976.83126645</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-16333128.87606645</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-16333628.87606645</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-16102383.76183087</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-15934750.33823087</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-15929038.87073087</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-15780120.55053087</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-16185611.97223087</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-15847304.76553087</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-16154847.91753087</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-15841162.71603087</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-15893209.86003087</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-15650501.00203087</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-15591807.40363087</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-15008389.47403087</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-14425917.9484402</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-13744580.0023402</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-13179135.0710402</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-13315851.3046402</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-13314342.9678402</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-13171426.1437402</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-13171356.1437402</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-13414373.3609402</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-14051054.4790402</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-14335295.0349402</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-13579535.90004021</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-13452571.58104021</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-639978.5902703153</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-639839.5902703153</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-386344.3238703153</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-385744.3238703153</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-385880.7084703153</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-378580.7084703153</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-616515.3177703153</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-441034.9299703153</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-769649.4178703153</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-598382.2267703153</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-573279.1752703153</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-289964.2533703152</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-432756.1748703152</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-432485.9572703153</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-418556.7325703152</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-536075.2592703153</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-369287.0581703153</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-829430.9092703153</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-829730.9092703153</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-923816.2529703153</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1326212.362870315</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1622441.251470315</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1795787.096370315</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1462688.660570315</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-905252.6096703152</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1116108.385970315</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-946397.2014703152</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-946025.3974703152</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-809413.1501703153</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-808758.9706703153</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1116289.872270315</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1116224.872270315</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1336511.879570315</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1346432.833970315</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1408068.740270315</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1237064.358070315</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1244913.327370315</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-789675.0201703154</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-789383.2573703154</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-563143.2029703154</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-748806.1842703153</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-747329.0527703153</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-928179.1058703153</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1262344.517570315</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1262750.667370315</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-693724.3271439666</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-401744.9730439666</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-640629.5781439666</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-307581.0538439666</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-616601.3739439666</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-946087.2534439666</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1185765.063843967</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1023458.905143967</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1248366.066043967</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-953959.1663439667</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1212523.888443967</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1225514.213143967</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1054125.135343967</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-823321.1026439668</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1003180.349943967</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1051038.516743967</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-773394.0550439669</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1033224.403943967</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-711376.5881439669</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-413273.6749439669</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-74080.24614396691</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1117669.312456033</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1117669.312456033</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>937273.4884560332</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>769381.8903560331</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>893756.1494560331</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>660051.9763560331</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-805902.2518439669</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-601840.0604439669</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-930883.6389439669</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-720066.4503439669</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-869941.8459439669</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1001053.799143967</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1753838.755736799</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1494972.433736798</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1540342.998436798</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1865060.178036798</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2836090.209936798</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-5923890.865436799</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-20283814.4079606</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-19233403.2386606</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-14831609.12055419</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-15897045.43325419</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-15023129.78693602</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-15576792.89326826</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-16014287.64212066</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-15710148.40542066</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-15764289.12822066</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-15777687.87122066</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-16470640.75532066</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-15840086.77366622</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-16003709.24256622</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-15725115.61226622</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-16143233.15546622</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-15560978.03676622</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-15491544.05663121</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-15361228.42163121</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-15386903.14733121</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-15624460.99723121</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-15359084.97613121</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-14720672.38943121</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-14377236.12963121</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-15389899.36996646</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-15020743.73076646</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-14683122.13786646</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-14621824.37586646</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-14611457.55966646</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-14747460.03026646</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-14795912.70946646</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-14773977.43746645</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-14776598.43706645</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-15070300.16236645</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-15008028.22136645</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-14808396.33676645</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-14644286.28236645</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-14644248.11586645</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-14359464.23856645</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-14358093.23856645</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-14396893.52836645</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-11089248.85535085</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-11159891.44325085</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-10626061.67045085</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-12991114.33095085</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-12991045.33095085</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-13792374.54745084</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-13853688.69456566</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-13704038.49766566</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-13704295.37606566</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-14566932.49735998</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-14790273.31995998</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-15028283.61445998</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-15027981.56635998</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-15271069.56515998</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-15271000.56515998</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-15591404.60345998</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-15824480.22485998</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-15771775.56615998</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-15461811.46595998</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-15462063.74355998</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-15641309.94315998</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-15912443.80025998</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-15912373.80025998</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-16344585.27315998</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-17342761.00845998</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-18142761.00845998</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-18004004.23505998</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-18195660.43655998</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-17888244.87555998</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-17652926.79575998</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-17945207.98545998</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-17932405.03465998</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-18100309.60255998</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-18036332.07785998</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-17731568.67625998</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-17557746.85805998</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-17517993.48855998</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-17225560.17995998</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-17216326.17995998</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-17169165.44065998</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-17218827.51266645</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-16866525.11906645</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-16860525.11906645</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-17145375.87386645</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-17144141.87386645</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-17502446.85976645</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-17499946.85976645</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-17249156.82836645</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-17248045.82836645</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-17248146.58736645</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-17730503.93556645</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-17454377.71136645</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-16624976.83126645</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-16333128.87606645</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-16333628.87606645</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-16102383.76183087</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-15934750.33823087</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-15929038.87073087</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-15780120.55053087</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-16185611.97223087</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-15847304.76553087</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-16154847.91753087</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-15841162.71603087</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-15893209.86003087</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-15650501.00203087</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-15591807.40363087</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-15008389.47403087</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-14425917.9484402</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-13744580.0023402</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-13179135.0710402</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-13315851.3046402</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-13314342.9678402</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-13171426.1437402</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-13171356.1437402</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-13414373.3609402</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-14051054.4790402</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-14335295.0349402</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-13579535.90004021</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-13452571.58104021</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
